--- a/Documentacion/CMMI Nivel 2/Area PP_PMC/Cronograma PP-PMC.V01.xlsx
+++ b/Documentacion/CMMI Nivel 2/Area PP_PMC/Cronograma PP-PMC.V01.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190"/>
+    <workbookView xWindow="0" yWindow="60" windowWidth="16380" windowHeight="8130"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja3" sheetId="3" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" iterateDelta="1E-4"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -18,6 +18,7 @@
   <authors>
     <author>juan</author>
     <author/>
+    <author>Juan Cortez Lope</author>
   </authors>
   <commentList>
     <comment ref="Q8" authorId="0">
@@ -324,6 +325,268 @@
           </rPr>
           <t>Describir los casos de uso del sistema. Para que se va usar el sistema.
 Ejm. Registro de factura.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AG35" authorId="2">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Jimenez , Benites</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AN37" authorId="2">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Juan Cortez Lope:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AK38" authorId="2">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>vilca</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AR40" authorId="2">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>JIMENEZ, VILCA</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AT41" authorId="2">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>JIMENEZ BENITES</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AV42" authorId="2">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>JIMENEZ BENITES</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AZ43" authorId="2">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>BENITES CORTEZ</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BB46" authorId="2">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>JIMENEZ, VILCA</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BF47" authorId="2">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>JIMENEZ BENITES</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BH48" authorId="2">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>JIMENEZ BENITES</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BJ49" authorId="2">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>BENITES CORTEZ</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BN51" authorId="2">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>JIMENEZ, VILCA</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BP52" authorId="2">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>JIMENEZ BENITES</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BT53" authorId="2">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>JIMENEZ BENITES</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BV54" authorId="2">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>BENITES CORTEZ</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="CC56" authorId="2">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Juan Cortez</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="CH57" authorId="2">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Jimenez Benites</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="CH58" authorId="2">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>jimenez benites Vilca Cortez</t>
         </r>
       </text>
     </comment>
@@ -332,50 +595,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="104">
   <si>
     <t>Nombre de tarea</t>
   </si>
   <si>
-    <t>Gestion de Configuracion</t>
-  </si>
-  <si>
-    <t>Proceso de Ingenieria</t>
-  </si>
-  <si>
-    <t>Analisis</t>
-  </si>
-  <si>
-    <t>Diseño</t>
-  </si>
-  <si>
-    <t>Documento de Diseño</t>
-  </si>
-  <si>
-    <t>Construccion</t>
-  </si>
-  <si>
-    <t>Pruebas</t>
-  </si>
-  <si>
-    <t>Pruebas Internas</t>
-  </si>
-  <si>
-    <t>Pruebas del Usuario</t>
-  </si>
-  <si>
-    <t>Implementacion</t>
-  </si>
-  <si>
-    <t>Preparacion del manual del usuario</t>
-  </si>
-  <si>
-    <t>Crear los script de instalacion</t>
-  </si>
-  <si>
-    <t>Creacion del archivo de instalacion</t>
-  </si>
-  <si>
     <t>ENERO</t>
   </si>
   <si>
@@ -400,24 +624,6 @@
     <t>mar 13/01/15</t>
   </si>
   <si>
-    <t>Wilson Store</t>
-  </si>
-  <si>
-    <t>Casos de Uso</t>
-  </si>
-  <si>
-    <t>Modulo inventarios</t>
-  </si>
-  <si>
-    <t>Modulo facturacion</t>
-  </si>
-  <si>
-    <t>Modulo de integracion cliente servidor , BD</t>
-  </si>
-  <si>
-    <t>Modulo de reportes gerenciales</t>
-  </si>
-  <si>
     <t>DIAS</t>
   </si>
   <si>
@@ -536,13 +742,178 @@
   </si>
   <si>
     <t>lun 23/03/15</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Proceso de Ingenieria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Wilson Store</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Analisis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          Casos de Uso</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Diseño</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          Documento de Diseño</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Construccion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          Modulo inventarios</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          Modulo facturacion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          Modulo de integracion cliente servidor , BD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          Modulo de reportes gerenciales</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Pruebas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         Pruebas Internas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            Modulo inventarios</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            Modulo facturacion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            Modulo de integracion cliente servidor , BD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            Modulo de reportes gerenciales</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        Pruebas del Usuario</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           Modulo inventarios</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           Modulo facturacion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           Modulo de integracion cliente servidor , BD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Implementacion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          Preparacion del manual del usuario</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          Crear los script de instalacion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          Creacion del archivo de instalacion</t>
+  </si>
+  <si>
+    <t>vie 20/03/15</t>
+  </si>
+  <si>
+    <t>jue 29/01/15</t>
+  </si>
+  <si>
+    <t>mie 28/01/15</t>
+  </si>
+  <si>
+    <t>vie 30/01/15</t>
+  </si>
+  <si>
+    <t>jue 05/02/15</t>
+  </si>
+  <si>
+    <t>lun 02/02/15</t>
+  </si>
+  <si>
+    <t>vie 06/02/15</t>
+  </si>
+  <si>
+    <t>lun 09/02/15</t>
+  </si>
+  <si>
+    <t>mar 10/02/15</t>
+  </si>
+  <si>
+    <t>mie 11/02/15</t>
+  </si>
+  <si>
+    <t>jue 12/02/15</t>
+  </si>
+  <si>
+    <t>vie 13/02/15</t>
+  </si>
+  <si>
+    <t>lun 16/02/15</t>
+  </si>
+  <si>
+    <t>mar 17/02/15</t>
+  </si>
+  <si>
+    <t>mie 18/02/15</t>
+  </si>
+  <si>
+    <t>vie 20/02/15</t>
+  </si>
+  <si>
+    <t>lun 23/02/15</t>
+  </si>
+  <si>
+    <t>mie 25/02/15</t>
+  </si>
+  <si>
+    <t>jue 26/02/15</t>
+  </si>
+  <si>
+    <t>vie 27/02/15</t>
+  </si>
+  <si>
+    <t>lun 02/03/15</t>
+  </si>
+  <si>
+    <t>mar 03/03/15</t>
+  </si>
+  <si>
+    <t>mie 18/03/15</t>
+  </si>
+  <si>
+    <t>mie 04/03/15</t>
+  </si>
+  <si>
+    <t>jue 05/03/15</t>
+  </si>
+  <si>
+    <t>vie 06/03/15</t>
+  </si>
+  <si>
+    <t>lun 09/03/15</t>
+  </si>
+  <si>
+    <t>mar 10/03/15</t>
+  </si>
+  <si>
+    <t>mie 11/03/15</t>
+  </si>
+  <si>
+    <t>jue 12/03/15</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -577,13 +948,6 @@
       <sz val="8"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
@@ -650,6 +1014,19 @@
       <color rgb="FFFF0000"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="8">
@@ -775,7 +1152,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -792,35 +1169,29 @@
     <xf numFmtId="9" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="17" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="17" fontId="12" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="17" fontId="13" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="17" fontId="12" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="17" fontId="13" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="17" fontId="12" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1212,671 +1583,672 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CQ58"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="4" ySplit="3" topLeftCell="E4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="R22" sqref="R22"/>
+      <selection pane="bottomRight" activeCell="Z6" sqref="Z6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="40.5703125" style="11" customWidth="1"/>
-    <col min="2" max="2" width="5" style="11" customWidth="1"/>
-    <col min="3" max="4" width="12.85546875" style="11" customWidth="1"/>
-    <col min="5" max="94" width="2.140625" style="11" customWidth="1"/>
-    <col min="95" max="16384" width="9.140625" style="11"/>
+    <col min="1" max="1" width="40.5703125" style="9" customWidth="1"/>
+    <col min="2" max="2" width="5" style="9" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" style="9" customWidth="1"/>
+    <col min="4" max="4" width="10.85546875" style="9" customWidth="1"/>
+    <col min="5" max="94" width="2.140625" style="9" customWidth="1"/>
+    <col min="95" max="16384" width="9.140625" style="9"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:95" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="19"/>
+      <c r="L1" s="19"/>
+      <c r="M1" s="19"/>
+      <c r="N1" s="19"/>
+      <c r="O1" s="19"/>
+      <c r="P1" s="19"/>
+      <c r="Q1" s="19"/>
+      <c r="R1" s="19"/>
+      <c r="S1" s="19"/>
+      <c r="T1" s="19"/>
+      <c r="U1" s="19"/>
+      <c r="V1" s="19"/>
+      <c r="W1" s="19"/>
+      <c r="X1" s="19"/>
+      <c r="Y1" s="19"/>
+      <c r="Z1" s="19"/>
+      <c r="AA1" s="19"/>
+      <c r="AB1" s="19"/>
+      <c r="AC1" s="19"/>
+      <c r="AD1" s="19"/>
+      <c r="AE1" s="19"/>
+      <c r="AF1" s="19"/>
+      <c r="AG1" s="19"/>
+      <c r="AH1" s="20"/>
+      <c r="AI1" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="AJ1" s="22"/>
+      <c r="AK1" s="22"/>
+      <c r="AL1" s="22"/>
+      <c r="AM1" s="22"/>
+      <c r="AN1" s="22"/>
+      <c r="AO1" s="22"/>
+      <c r="AP1" s="22"/>
+      <c r="AQ1" s="22"/>
+      <c r="AR1" s="22"/>
+      <c r="AS1" s="22"/>
+      <c r="AT1" s="22"/>
+      <c r="AU1" s="22"/>
+      <c r="AV1" s="22"/>
+      <c r="AW1" s="22"/>
+      <c r="AX1" s="22"/>
+      <c r="AY1" s="22"/>
+      <c r="AZ1" s="22"/>
+      <c r="BA1" s="22"/>
+      <c r="BB1" s="22"/>
+      <c r="BC1" s="22"/>
+      <c r="BD1" s="22"/>
+      <c r="BE1" s="22"/>
+      <c r="BF1" s="22"/>
+      <c r="BG1" s="22"/>
+      <c r="BH1" s="22"/>
+      <c r="BI1" s="22"/>
+      <c r="BJ1" s="22"/>
+      <c r="BK1" s="23"/>
+      <c r="BL1" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="BM1" s="25"/>
+      <c r="BN1" s="25"/>
+      <c r="BO1" s="25"/>
+      <c r="BP1" s="25"/>
+      <c r="BQ1" s="25"/>
+      <c r="BR1" s="25"/>
+      <c r="BS1" s="25"/>
+      <c r="BT1" s="25"/>
+      <c r="BU1" s="25"/>
+      <c r="BV1" s="25"/>
+      <c r="BW1" s="25"/>
+      <c r="BX1" s="25"/>
+      <c r="BY1" s="25"/>
+      <c r="BZ1" s="25"/>
+      <c r="CA1" s="25"/>
+      <c r="CB1" s="25"/>
+      <c r="CC1" s="25"/>
+      <c r="CD1" s="25"/>
+      <c r="CE1" s="25"/>
+      <c r="CF1" s="25"/>
+      <c r="CG1" s="25"/>
+      <c r="CH1" s="25"/>
+      <c r="CI1" s="25"/>
+      <c r="CJ1" s="25"/>
+      <c r="CK1" s="25"/>
+      <c r="CL1" s="25"/>
+      <c r="CM1" s="25"/>
+      <c r="CN1" s="25"/>
+      <c r="CO1" s="25"/>
+      <c r="CP1" s="26"/>
+    </row>
+    <row r="2" spans="1:95" x14ac:dyDescent="0.25">
+      <c r="E2" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="J2" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="K2" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="L2" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="M2" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="N2" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="O2" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="P2" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q2" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="R2" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="S2" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="T2" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="U2" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="V2" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="W2" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="X2" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="Y2" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="Z2" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA2" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB2" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="AC2" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="AD2" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="AE2" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="AF2" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="AG2" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AH2" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="AI2" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="AJ2" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="AK2" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="AL2" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="AM2" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="AN2" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AO2" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="AP2" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="AQ2" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="AR2" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="AS2" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="AT2" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="AU2" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AV2" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="AW2" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="AX2" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="AY2" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="AZ2" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="BA2" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="BB2" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="BC2" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="BD2" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="BE2" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="BF2" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="BG2" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="BH2" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="BI2" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="BJ2" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="BK2" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="BL2" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="BM2" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="BN2" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="BO2" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="BP2" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="BQ2" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="BR2" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="BS2" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="BT2" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="BU2" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="BV2" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="BW2" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="BX2" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="BY2" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="BZ2" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="CA2" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="CB2" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="CC2" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="CD2" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="CE2" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="CF2" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="CG2" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="CH2" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="CI2" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="CJ2" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="CK2" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="CL2" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="CM2" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="CN2" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="CO2" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="CP2" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="CQ2" s="6"/>
+    </row>
+    <row r="3" spans="1:95" x14ac:dyDescent="0.25">
+      <c r="E3" s="11">
+        <v>1</v>
+      </c>
+      <c r="F3" s="11">
+        <v>2</v>
+      </c>
+      <c r="G3" s="11">
+        <v>3</v>
+      </c>
+      <c r="H3" s="11">
+        <v>4</v>
+      </c>
+      <c r="I3" s="11">
+        <v>5</v>
+      </c>
+      <c r="J3" s="12">
+        <v>6</v>
+      </c>
+      <c r="K3" s="11">
+        <v>7</v>
+      </c>
+      <c r="L3" s="12">
+        <v>8</v>
+      </c>
+      <c r="M3" s="11">
+        <v>9</v>
+      </c>
+      <c r="N3" s="11">
+        <v>10</v>
+      </c>
+      <c r="O3" s="11">
+        <v>11</v>
+      </c>
+      <c r="P3" s="11">
+        <v>12</v>
+      </c>
+      <c r="Q3" s="12">
+        <v>13</v>
+      </c>
+      <c r="R3" s="11">
+        <v>14</v>
+      </c>
+      <c r="S3" s="12">
+        <v>15</v>
+      </c>
+      <c r="T3" s="11">
+        <v>16</v>
+      </c>
+      <c r="U3" s="11">
+        <v>17</v>
+      </c>
+      <c r="V3" s="11">
+        <v>18</v>
+      </c>
+      <c r="W3" s="11">
+        <v>19</v>
+      </c>
+      <c r="X3" s="12">
+        <v>20</v>
+      </c>
+      <c r="Y3" s="11">
+        <v>21</v>
+      </c>
+      <c r="Z3" s="12">
+        <v>22</v>
+      </c>
+      <c r="AA3" s="11">
+        <v>23</v>
+      </c>
+      <c r="AB3" s="11">
+        <v>24</v>
+      </c>
+      <c r="AC3" s="11">
+        <v>25</v>
+      </c>
+      <c r="AD3" s="11">
+        <v>26</v>
+      </c>
+      <c r="AE3" s="12">
+        <v>27</v>
+      </c>
+      <c r="AF3" s="11">
         <v>28</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="AG3" s="12">
+        <v>29</v>
+      </c>
+      <c r="AH3" s="11">
+        <v>30</v>
+      </c>
+      <c r="AI3" s="11">
+        <v>31</v>
+      </c>
+      <c r="AJ3" s="11">
+        <v>1</v>
+      </c>
+      <c r="AK3" s="11">
+        <v>2</v>
+      </c>
+      <c r="AL3" s="12">
+        <v>3</v>
+      </c>
+      <c r="AM3" s="11">
+        <v>4</v>
+      </c>
+      <c r="AN3" s="12">
+        <v>5</v>
+      </c>
+      <c r="AO3" s="11">
+        <v>6</v>
+      </c>
+      <c r="AP3" s="11">
+        <v>7</v>
+      </c>
+      <c r="AQ3" s="11">
+        <v>8</v>
+      </c>
+      <c r="AR3" s="11">
+        <v>9</v>
+      </c>
+      <c r="AS3" s="12">
+        <v>10</v>
+      </c>
+      <c r="AT3" s="11">
+        <v>11</v>
+      </c>
+      <c r="AU3" s="12">
+        <v>12</v>
+      </c>
+      <c r="AV3" s="11">
+        <v>13</v>
+      </c>
+      <c r="AW3" s="11">
+        <v>14</v>
+      </c>
+      <c r="AX3" s="11">
+        <v>15</v>
+      </c>
+      <c r="AY3" s="11">
+        <v>16</v>
+      </c>
+      <c r="AZ3" s="12">
         <v>17</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="BA3" s="11">
         <v>18</v>
       </c>
-      <c r="E1" s="20" t="s">
+      <c r="BB3" s="12">
+        <v>19</v>
+      </c>
+      <c r="BC3" s="11">
+        <v>20</v>
+      </c>
+      <c r="BD3" s="11">
+        <v>21</v>
+      </c>
+      <c r="BE3" s="11">
+        <v>22</v>
+      </c>
+      <c r="BF3" s="11">
+        <v>23</v>
+      </c>
+      <c r="BG3" s="12">
+        <v>24</v>
+      </c>
+      <c r="BH3" s="11">
+        <v>25</v>
+      </c>
+      <c r="BI3" s="12">
+        <v>26</v>
+      </c>
+      <c r="BJ3" s="11">
+        <v>27</v>
+      </c>
+      <c r="BK3" s="11">
+        <v>28</v>
+      </c>
+      <c r="BL3" s="11">
+        <v>1</v>
+      </c>
+      <c r="BM3" s="11">
+        <v>2</v>
+      </c>
+      <c r="BN3" s="12">
+        <v>3</v>
+      </c>
+      <c r="BO3" s="11">
+        <v>4</v>
+      </c>
+      <c r="BP3" s="12">
+        <v>5</v>
+      </c>
+      <c r="BQ3" s="11">
+        <v>6</v>
+      </c>
+      <c r="BR3" s="11">
+        <v>7</v>
+      </c>
+      <c r="BS3" s="11">
+        <v>8</v>
+      </c>
+      <c r="BT3" s="11">
+        <v>9</v>
+      </c>
+      <c r="BU3" s="12">
+        <v>10</v>
+      </c>
+      <c r="BV3" s="11">
+        <v>11</v>
+      </c>
+      <c r="BW3" s="12">
+        <v>12</v>
+      </c>
+      <c r="BX3" s="11">
+        <v>13</v>
+      </c>
+      <c r="BY3" s="11">
         <v>14</v>
       </c>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
-      <c r="J1" s="21"/>
-      <c r="K1" s="21"/>
-      <c r="L1" s="21"/>
-      <c r="M1" s="21"/>
-      <c r="N1" s="21"/>
-      <c r="O1" s="21"/>
-      <c r="P1" s="21"/>
-      <c r="Q1" s="21"/>
-      <c r="R1" s="21"/>
-      <c r="S1" s="21"/>
-      <c r="T1" s="21"/>
-      <c r="U1" s="21"/>
-      <c r="V1" s="21"/>
-      <c r="W1" s="21"/>
-      <c r="X1" s="21"/>
-      <c r="Y1" s="21"/>
-      <c r="Z1" s="21"/>
-      <c r="AA1" s="21"/>
-      <c r="AB1" s="21"/>
-      <c r="AC1" s="21"/>
-      <c r="AD1" s="21"/>
-      <c r="AE1" s="21"/>
-      <c r="AF1" s="21"/>
-      <c r="AG1" s="21"/>
-      <c r="AH1" s="22"/>
-      <c r="AI1" s="23" t="s">
+      <c r="BZ3" s="11">
         <v>15</v>
       </c>
-      <c r="AJ1" s="24"/>
-      <c r="AK1" s="24"/>
-      <c r="AL1" s="24"/>
-      <c r="AM1" s="24"/>
-      <c r="AN1" s="24"/>
-      <c r="AO1" s="24"/>
-      <c r="AP1" s="24"/>
-      <c r="AQ1" s="24"/>
-      <c r="AR1" s="24"/>
-      <c r="AS1" s="24"/>
-      <c r="AT1" s="24"/>
-      <c r="AU1" s="24"/>
-      <c r="AV1" s="24"/>
-      <c r="AW1" s="24"/>
-      <c r="AX1" s="24"/>
-      <c r="AY1" s="24"/>
-      <c r="AZ1" s="24"/>
-      <c r="BA1" s="24"/>
-      <c r="BB1" s="24"/>
-      <c r="BC1" s="24"/>
-      <c r="BD1" s="24"/>
-      <c r="BE1" s="24"/>
-      <c r="BF1" s="24"/>
-      <c r="BG1" s="24"/>
-      <c r="BH1" s="24"/>
-      <c r="BI1" s="24"/>
-      <c r="BJ1" s="24"/>
-      <c r="BK1" s="25"/>
-      <c r="BL1" s="26" t="s">
+      <c r="CA3" s="11">
         <v>16</v>
       </c>
-      <c r="BM1" s="27"/>
-      <c r="BN1" s="27"/>
-      <c r="BO1" s="27"/>
-      <c r="BP1" s="27"/>
-      <c r="BQ1" s="27"/>
-      <c r="BR1" s="27"/>
-      <c r="BS1" s="27"/>
-      <c r="BT1" s="27"/>
-      <c r="BU1" s="27"/>
-      <c r="BV1" s="27"/>
-      <c r="BW1" s="27"/>
-      <c r="BX1" s="27"/>
-      <c r="BY1" s="27"/>
-      <c r="BZ1" s="27"/>
-      <c r="CA1" s="27"/>
-      <c r="CB1" s="27"/>
-      <c r="CC1" s="27"/>
-      <c r="CD1" s="27"/>
-      <c r="CE1" s="27"/>
-      <c r="CF1" s="27"/>
-      <c r="CG1" s="27"/>
-      <c r="CH1" s="27"/>
-      <c r="CI1" s="27"/>
-      <c r="CJ1" s="27"/>
-      <c r="CK1" s="27"/>
-      <c r="CL1" s="27"/>
-      <c r="CM1" s="27"/>
-      <c r="CN1" s="27"/>
-      <c r="CO1" s="27"/>
-      <c r="CP1" s="28"/>
-    </row>
-    <row r="2" spans="1:95" x14ac:dyDescent="0.25">
-      <c r="E2" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="F2" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="G2" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="H2" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="I2" s="12" t="s">
+      <c r="CB3" s="12">
+        <v>17</v>
+      </c>
+      <c r="CC3" s="11">
+        <v>18</v>
+      </c>
+      <c r="CD3" s="12">
+        <v>19</v>
+      </c>
+      <c r="CE3" s="11">
+        <v>20</v>
+      </c>
+      <c r="CF3" s="11">
+        <v>21</v>
+      </c>
+      <c r="CG3" s="11">
+        <v>22</v>
+      </c>
+      <c r="CH3" s="11">
+        <v>23</v>
+      </c>
+      <c r="CI3" s="12">
+        <v>24</v>
+      </c>
+      <c r="CJ3" s="11">
+        <v>25</v>
+      </c>
+      <c r="CK3" s="12">
+        <v>26</v>
+      </c>
+      <c r="CL3" s="11">
+        <v>27</v>
+      </c>
+      <c r="CM3" s="11">
+        <v>28</v>
+      </c>
+      <c r="CN3" s="11">
         <v>29</v>
       </c>
-      <c r="J2" s="12" t="s">
+      <c r="CO3" s="11">
         <v>30</v>
       </c>
-      <c r="K2" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="L2" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="M2" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="N2" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="O2" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="P2" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q2" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="R2" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="S2" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="T2" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="U2" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="V2" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="W2" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="X2" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="Y2" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="Z2" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="AA2" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB2" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="AC2" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="AD2" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="AE2" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="AF2" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="AG2" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="AH2" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="AI2" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="AJ2" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="AK2" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="AL2" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="AM2" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="AN2" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="AO2" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="AP2" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="AQ2" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="AR2" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="AS2" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="AT2" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="AU2" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="AV2" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="AW2" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="AX2" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="AY2" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="AZ2" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="BA2" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="BB2" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="BC2" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="BD2" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="BE2" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="BF2" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="BG2" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="BH2" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="BI2" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="BJ2" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="BK2" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="BL2" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="BM2" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="BN2" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="BO2" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="BP2" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="BQ2" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="BR2" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="BS2" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="BT2" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="BU2" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="BV2" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="BW2" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="BX2" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="BY2" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="BZ2" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="CA2" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="CB2" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="CC2" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="CD2" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="CE2" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="CF2" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="CG2" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="CH2" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="CI2" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="CJ2" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="CK2" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="CL2" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="CM2" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="CN2" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="CO2" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="CP2" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="CQ2" s="8"/>
-    </row>
-    <row r="3" spans="1:95" x14ac:dyDescent="0.25">
-      <c r="E3" s="13">
-        <v>1</v>
-      </c>
-      <c r="F3" s="13">
-        <v>2</v>
-      </c>
-      <c r="G3" s="13">
-        <v>3</v>
-      </c>
-      <c r="H3" s="13">
-        <v>4</v>
-      </c>
-      <c r="I3" s="13">
-        <v>5</v>
-      </c>
-      <c r="J3" s="14">
-        <v>6</v>
-      </c>
-      <c r="K3" s="13">
-        <v>7</v>
-      </c>
-      <c r="L3" s="14">
-        <v>8</v>
-      </c>
-      <c r="M3" s="13">
-        <v>9</v>
-      </c>
-      <c r="N3" s="13">
-        <v>10</v>
-      </c>
-      <c r="O3" s="13">
-        <v>11</v>
-      </c>
-      <c r="P3" s="13">
-        <v>12</v>
-      </c>
-      <c r="Q3" s="14">
-        <v>13</v>
-      </c>
-      <c r="R3" s="13">
-        <v>14</v>
-      </c>
-      <c r="S3" s="14">
-        <v>15</v>
-      </c>
-      <c r="T3" s="13">
-        <v>16</v>
-      </c>
-      <c r="U3" s="13">
-        <v>17</v>
-      </c>
-      <c r="V3" s="13">
-        <v>18</v>
-      </c>
-      <c r="W3" s="13">
-        <v>19</v>
-      </c>
-      <c r="X3" s="14">
-        <v>20</v>
-      </c>
-      <c r="Y3" s="13">
-        <v>21</v>
-      </c>
-      <c r="Z3" s="14">
-        <v>22</v>
-      </c>
-      <c r="AA3" s="13">
-        <v>23</v>
-      </c>
-      <c r="AB3" s="13">
-        <v>24</v>
-      </c>
-      <c r="AC3" s="13">
-        <v>25</v>
-      </c>
-      <c r="AD3" s="13">
-        <v>26</v>
-      </c>
-      <c r="AE3" s="14">
-        <v>27</v>
-      </c>
-      <c r="AF3" s="13">
-        <v>28</v>
-      </c>
-      <c r="AG3" s="14">
-        <v>29</v>
-      </c>
-      <c r="AH3" s="13">
-        <v>30</v>
-      </c>
-      <c r="AI3" s="13">
-        <v>31</v>
-      </c>
-      <c r="AJ3" s="13">
-        <v>1</v>
-      </c>
-      <c r="AK3" s="13">
-        <v>2</v>
-      </c>
-      <c r="AL3" s="14">
-        <v>3</v>
-      </c>
-      <c r="AM3" s="13">
-        <v>4</v>
-      </c>
-      <c r="AN3" s="14">
-        <v>5</v>
-      </c>
-      <c r="AO3" s="13">
-        <v>6</v>
-      </c>
-      <c r="AP3" s="13">
-        <v>7</v>
-      </c>
-      <c r="AQ3" s="13">
-        <v>8</v>
-      </c>
-      <c r="AR3" s="13">
-        <v>9</v>
-      </c>
-      <c r="AS3" s="14">
-        <v>10</v>
-      </c>
-      <c r="AT3" s="13">
-        <v>11</v>
-      </c>
-      <c r="AU3" s="14">
-        <v>12</v>
-      </c>
-      <c r="AV3" s="13">
-        <v>13</v>
-      </c>
-      <c r="AW3" s="13">
-        <v>14</v>
-      </c>
-      <c r="AX3" s="13">
-        <v>15</v>
-      </c>
-      <c r="AY3" s="13">
-        <v>16</v>
-      </c>
-      <c r="AZ3" s="14">
-        <v>17</v>
-      </c>
-      <c r="BA3" s="13">
-        <v>18</v>
-      </c>
-      <c r="BB3" s="14">
-        <v>19</v>
-      </c>
-      <c r="BC3" s="13">
-        <v>20</v>
-      </c>
-      <c r="BD3" s="13">
-        <v>21</v>
-      </c>
-      <c r="BE3" s="13">
-        <v>22</v>
-      </c>
-      <c r="BF3" s="13">
-        <v>23</v>
-      </c>
-      <c r="BG3" s="14">
-        <v>24</v>
-      </c>
-      <c r="BH3" s="13">
-        <v>25</v>
-      </c>
-      <c r="BI3" s="14">
-        <v>26</v>
-      </c>
-      <c r="BJ3" s="13">
-        <v>27</v>
-      </c>
-      <c r="BK3" s="13">
-        <v>28</v>
-      </c>
-      <c r="BL3" s="13">
-        <v>1</v>
-      </c>
-      <c r="BM3" s="13">
-        <v>2</v>
-      </c>
-      <c r="BN3" s="14">
-        <v>3</v>
-      </c>
-      <c r="BO3" s="13">
-        <v>4</v>
-      </c>
-      <c r="BP3" s="14">
-        <v>5</v>
-      </c>
-      <c r="BQ3" s="13">
-        <v>6</v>
-      </c>
-      <c r="BR3" s="13">
-        <v>7</v>
-      </c>
-      <c r="BS3" s="13">
-        <v>8</v>
-      </c>
-      <c r="BT3" s="13">
-        <v>9</v>
-      </c>
-      <c r="BU3" s="14">
-        <v>10</v>
-      </c>
-      <c r="BV3" s="13">
-        <v>11</v>
-      </c>
-      <c r="BW3" s="14">
-        <v>12</v>
-      </c>
-      <c r="BX3" s="13">
-        <v>13</v>
-      </c>
-      <c r="BY3" s="13">
-        <v>14</v>
-      </c>
-      <c r="BZ3" s="13">
-        <v>15</v>
-      </c>
-      <c r="CA3" s="13">
-        <v>16</v>
-      </c>
-      <c r="CB3" s="14">
-        <v>17</v>
-      </c>
-      <c r="CC3" s="13">
-        <v>18</v>
-      </c>
-      <c r="CD3" s="14">
-        <v>19</v>
-      </c>
-      <c r="CE3" s="13">
-        <v>20</v>
-      </c>
-      <c r="CF3" s="13">
-        <v>21</v>
-      </c>
-      <c r="CG3" s="13">
-        <v>22</v>
-      </c>
-      <c r="CH3" s="13">
-        <v>23</v>
-      </c>
-      <c r="CI3" s="14">
-        <v>24</v>
-      </c>
-      <c r="CJ3" s="13">
-        <v>25</v>
-      </c>
-      <c r="CK3" s="14">
-        <v>26</v>
-      </c>
-      <c r="CL3" s="13">
-        <v>27</v>
-      </c>
-      <c r="CM3" s="13">
-        <v>28</v>
-      </c>
-      <c r="CN3" s="13">
-        <v>29</v>
-      </c>
-      <c r="CO3" s="13">
-        <v>30</v>
-      </c>
-      <c r="CP3" s="14">
+      <c r="CP3" s="12">
         <v>31</v>
       </c>
     </row>
@@ -1890,562 +2262,690 @@
     </row>
     <row r="5" spans="1:95" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="3"/>
     </row>
     <row r="6" spans="1:95" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="3"/>
     </row>
     <row r="7" spans="1:95" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B7" s="9"/>
-      <c r="U7" s="17"/>
-      <c r="V7" s="17"/>
-      <c r="W7" s="17"/>
-      <c r="X7" s="17"/>
-      <c r="Y7" s="17"/>
-      <c r="Z7" s="17"/>
-      <c r="AA7" s="17"/>
+        <v>24</v>
+      </c>
+      <c r="B7" s="7"/>
+      <c r="U7" s="15"/>
+      <c r="V7" s="15"/>
+      <c r="W7" s="15"/>
+      <c r="X7" s="15"/>
+      <c r="Y7" s="15"/>
+      <c r="Z7" s="15"/>
+      <c r="AA7" s="15"/>
     </row>
     <row r="8" spans="1:95" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="B8" s="4"/>
       <c r="C8" s="2" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E8" s="17"/>
-      <c r="F8" s="17"/>
-      <c r="J8" s="15"/>
-      <c r="K8" s="15"/>
-      <c r="L8" s="15"/>
-      <c r="M8" s="16"/>
-      <c r="N8" s="16"/>
-      <c r="O8" s="16"/>
-      <c r="P8" s="16"/>
-      <c r="Q8" s="15"/>
-      <c r="U8" s="17"/>
-      <c r="V8" s="17"/>
-      <c r="W8" s="17"/>
-      <c r="X8" s="17"/>
-      <c r="Y8" s="17"/>
-      <c r="Z8" s="17"/>
-      <c r="AA8" s="17"/>
+        <v>8</v>
+      </c>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
+      <c r="J8" s="13"/>
+      <c r="K8" s="13"/>
+      <c r="L8" s="13"/>
+      <c r="M8" s="14"/>
+      <c r="N8" s="14"/>
+      <c r="O8" s="14"/>
+      <c r="P8" s="14"/>
+      <c r="Q8" s="13"/>
+      <c r="U8" s="15"/>
+      <c r="V8" s="15"/>
+      <c r="W8" s="15"/>
+      <c r="X8" s="15"/>
+      <c r="Y8" s="15"/>
+      <c r="Z8" s="15"/>
+      <c r="AA8" s="15"/>
     </row>
     <row r="9" spans="1:95" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" s="3"/>
-      <c r="U9" s="17"/>
-      <c r="V9" s="17"/>
-      <c r="W9" s="17"/>
-      <c r="X9" s="17"/>
-      <c r="Y9" s="17"/>
-      <c r="Z9" s="17"/>
-      <c r="AA9" s="17"/>
+      <c r="U9" s="15"/>
+      <c r="V9" s="15"/>
+      <c r="W9" s="15"/>
+      <c r="X9" s="15"/>
+      <c r="Y9" s="15"/>
+      <c r="Z9" s="15"/>
+      <c r="AA9" s="15"/>
     </row>
     <row r="10" spans="1:95" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" s="2" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="R10" s="15"/>
-      <c r="S10" s="15"/>
-      <c r="T10" s="15"/>
-      <c r="U10" s="15"/>
-      <c r="V10" s="15"/>
-      <c r="W10" s="15"/>
-      <c r="X10" s="15"/>
-      <c r="Y10" s="15"/>
-      <c r="Z10" s="15"/>
-      <c r="AA10" s="15"/>
-      <c r="AB10" s="15"/>
-      <c r="AC10" s="15"/>
-      <c r="AD10" s="15"/>
+        <v>42</v>
+      </c>
+      <c r="R10" s="13"/>
+      <c r="S10" s="13"/>
+      <c r="T10" s="13"/>
+      <c r="U10" s="13"/>
+      <c r="V10" s="13"/>
+      <c r="W10" s="13"/>
+      <c r="X10" s="13"/>
+      <c r="Y10" s="13"/>
+      <c r="Z10" s="13"/>
+      <c r="AA10" s="13"/>
+      <c r="AB10" s="13"/>
+      <c r="AC10" s="13"/>
+      <c r="AD10" s="13"/>
     </row>
     <row r="11" spans="1:95" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="B11" s="4"/>
       <c r="C11" s="2" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="R11" s="18"/>
+        <v>17</v>
+      </c>
+      <c r="R11" s="16"/>
     </row>
     <row r="12" spans="1:95" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="B12" s="4"/>
       <c r="C12" s="2" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="R12" s="10"/>
-      <c r="S12" s="10"/>
+        <v>32</v>
+      </c>
+      <c r="R12" s="8"/>
+      <c r="S12" s="8"/>
     </row>
     <row r="13" spans="1:95" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" s="3"/>
     </row>
     <row r="14" spans="1:95" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" s="3"/>
     </row>
     <row r="15" spans="1:95" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="B15" s="4"/>
       <c r="C15" s="2" t="s">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="Z15" s="10"/>
+        <v>18</v>
+      </c>
+      <c r="Z15" s="8"/>
     </row>
     <row r="16" spans="1:95" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="B16" s="4"/>
       <c r="C16" s="2" t="s">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="AE16" s="10"/>
+        <v>43</v>
+      </c>
+      <c r="AE16" s="8"/>
     </row>
     <row r="17" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" s="3"/>
     </row>
     <row r="18" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="B18" s="4"/>
       <c r="C18" s="2" t="s">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="BB18" s="10"/>
+        <v>44</v>
+      </c>
+      <c r="BB18" s="8"/>
     </row>
     <row r="19" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="B19" s="4"/>
       <c r="C19" s="2" t="s">
-        <v>64</v>
+        <v>45</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="BG19" s="10"/>
+        <v>45</v>
+      </c>
+      <c r="BG19" s="8"/>
     </row>
     <row r="20" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" s="3"/>
     </row>
     <row r="21" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="B21" s="4"/>
       <c r="C21" s="2" t="s">
-        <v>65</v>
+        <v>46</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="CD21" s="10"/>
+        <v>46</v>
+      </c>
+      <c r="CD21" s="8"/>
     </row>
     <row r="22" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="B22" s="4"/>
       <c r="C22" s="2" t="s">
-        <v>66</v>
+        <v>47</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="CI22" s="10"/>
+        <v>47</v>
+      </c>
+      <c r="CI22" s="8"/>
     </row>
     <row r="23" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" s="3"/>
     </row>
     <row r="24" spans="1:87" x14ac:dyDescent="0.25">
-      <c r="A24" s="19" t="s">
-        <v>53</v>
+      <c r="A24" s="17" t="s">
+        <v>34</v>
       </c>
       <c r="B24" s="4"/>
       <c r="C24" s="5"/>
     </row>
     <row r="25" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="B25" s="4"/>
       <c r="C25" s="2" t="s">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="Z25" s="10"/>
-      <c r="AA25" s="10"/>
-      <c r="AB25" s="10"/>
-      <c r="AC25" s="10"/>
-      <c r="AD25" s="10"/>
+        <v>42</v>
+      </c>
+      <c r="Z25" s="8"/>
+      <c r="AA25" s="8"/>
+      <c r="AB25" s="8"/>
+      <c r="AC25" s="8"/>
+      <c r="AD25" s="8"/>
     </row>
     <row r="26" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="B26" s="4"/>
       <c r="C26" s="2" t="s">
-        <v>65</v>
+        <v>46</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="BB26" s="15"/>
-      <c r="BC26" s="15"/>
-      <c r="BD26" s="15"/>
-      <c r="BE26" s="15"/>
-      <c r="BF26" s="10"/>
+        <v>48</v>
+      </c>
+      <c r="BB26" s="13"/>
+      <c r="BC26" s="13"/>
+      <c r="BD26" s="13"/>
+      <c r="BE26" s="13"/>
+      <c r="BF26" s="8"/>
     </row>
     <row r="27" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
-        <v>56</v>
+        <v>37</v>
       </c>
       <c r="B27" s="4"/>
       <c r="C27" s="2" t="s">
-        <v>65</v>
+        <v>46</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="CD27" s="10"/>
-      <c r="CE27" s="10"/>
-      <c r="CF27" s="10"/>
-      <c r="CG27" s="15"/>
-      <c r="CH27" s="10"/>
+        <v>48</v>
+      </c>
+      <c r="CD27" s="8"/>
+      <c r="CE27" s="8"/>
+      <c r="CF27" s="8"/>
+      <c r="CG27" s="13"/>
+      <c r="CH27" s="8"/>
     </row>
     <row r="28" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>57</v>
+        <v>38</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" s="3"/>
     </row>
     <row r="29" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
-        <v>58</v>
+        <v>39</v>
       </c>
       <c r="B29" s="4"/>
-      <c r="C29" s="5"/>
-      <c r="CD29" s="10"/>
-      <c r="CE29" s="10"/>
-      <c r="CF29" s="10"/>
-      <c r="CG29" s="10"/>
-      <c r="CH29" s="10"/>
+      <c r="C29" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="CD29" s="8"/>
+      <c r="CE29" s="8"/>
+      <c r="CF29" s="8"/>
+      <c r="CG29" s="8"/>
+      <c r="CH29" s="8"/>
     </row>
     <row r="30" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
-        <v>59</v>
+        <v>40</v>
       </c>
       <c r="B30" s="4"/>
-      <c r="C30" s="5"/>
-      <c r="CH30" s="10"/>
+      <c r="C30" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="CH30" s="8"/>
     </row>
     <row r="31" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="B31" s="4"/>
-      <c r="C31" s="5"/>
-      <c r="CD31" s="10"/>
-      <c r="CE31" s="10"/>
+      <c r="C31" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="CD31" s="8"/>
+      <c r="CE31" s="8"/>
     </row>
     <row r="32" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>2</v>
+        <v>49</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" s="3"/>
     </row>
-    <row r="33" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" s="3"/>
     </row>
-    <row r="34" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>3</v>
+        <v>51</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" s="3"/>
     </row>
-    <row r="35" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
-        <v>23</v>
+        <v>52</v>
       </c>
       <c r="B35" s="4"/>
-      <c r="C35" s="6"/>
-    </row>
-    <row r="36" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="C35" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="AF35" s="13"/>
+      <c r="AG35" s="13"/>
+    </row>
+    <row r="36" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>4</v>
+        <v>53</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" s="3"/>
-      <c r="L36" s="10"/>
-      <c r="M36" s="10"/>
-      <c r="N36" s="10"/>
-      <c r="O36" s="10"/>
-    </row>
-    <row r="37" spans="1:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="37" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
-        <v>5</v>
+        <v>54</v>
       </c>
       <c r="B37" s="4"/>
-      <c r="C37" s="7"/>
-      <c r="L37" s="10"/>
-      <c r="M37" s="10"/>
-    </row>
-    <row r="38" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="C37" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="AH37" s="16"/>
+      <c r="AI37" s="16"/>
+      <c r="AJ37" s="16"/>
+      <c r="AK37" s="16"/>
+      <c r="AL37" s="13"/>
+      <c r="AM37" s="13"/>
+      <c r="AN37" s="16"/>
+    </row>
+    <row r="38" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
-        <v>1</v>
+        <v>41</v>
       </c>
       <c r="B38" s="4"/>
-      <c r="C38" s="7"/>
-    </row>
-    <row r="39" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="C38" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AH38" s="16"/>
+      <c r="AI38" s="13"/>
+      <c r="AJ38" s="13"/>
+      <c r="AK38" s="8"/>
+    </row>
+    <row r="39" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>6</v>
+        <v>55</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" s="3"/>
     </row>
-    <row r="40" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>24</v>
+        <v>56</v>
       </c>
       <c r="B40" s="2"/>
-      <c r="C40" s="3"/>
-      <c r="O40" s="10"/>
-      <c r="P40" s="10"/>
-    </row>
-    <row r="41" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="C40" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="AO40" s="16"/>
+      <c r="AP40" s="16"/>
+      <c r="AQ40" s="13"/>
+      <c r="AR40" s="13"/>
+    </row>
+    <row r="41" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>25</v>
+        <v>57</v>
       </c>
       <c r="B41" s="2"/>
-      <c r="C41" s="3"/>
-      <c r="Q41" s="10"/>
-      <c r="R41" s="10"/>
-    </row>
-    <row r="42" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="C41" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="AS41" s="8"/>
+      <c r="AT41" s="8"/>
+    </row>
+    <row r="42" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
-        <v>26</v>
+        <v>58</v>
       </c>
       <c r="B42" s="2"/>
-      <c r="C42" s="3"/>
-      <c r="S42" s="10"/>
-      <c r="T42" s="10"/>
-    </row>
-    <row r="43" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="C42" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="AU42" s="16"/>
+      <c r="AV42" s="13"/>
+    </row>
+    <row r="43" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
-        <v>27</v>
+        <v>59</v>
       </c>
       <c r="B43" s="2"/>
-      <c r="C43" s="3"/>
-      <c r="U43" s="10"/>
-      <c r="V43" s="10"/>
-    </row>
-    <row r="44" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="C43" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="AW43" s="13"/>
+      <c r="AX43" s="13"/>
+      <c r="AY43" s="8"/>
+      <c r="AZ43" s="8"/>
+    </row>
+    <row r="44" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
-        <v>7</v>
+        <v>60</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" s="3"/>
     </row>
-    <row r="45" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
-        <v>8</v>
+        <v>61</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" s="3"/>
     </row>
-    <row r="46" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
-        <v>24</v>
+        <v>62</v>
       </c>
       <c r="B46" s="4"/>
-      <c r="C46" s="5"/>
-      <c r="P46" s="10"/>
-      <c r="Q46" s="10"/>
-    </row>
-    <row r="47" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="C46" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="BA46" s="8"/>
+      <c r="BB46" s="13"/>
+    </row>
+    <row r="47" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
-        <v>25</v>
+        <v>63</v>
       </c>
       <c r="B47" s="4"/>
-      <c r="C47" s="5"/>
-      <c r="R47" s="10"/>
-      <c r="S47" s="10"/>
-    </row>
-    <row r="48" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="C47" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="BC47" s="8"/>
+      <c r="BD47" s="16"/>
+      <c r="BE47" s="13"/>
+      <c r="BF47" s="8"/>
+    </row>
+    <row r="48" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
-        <v>26</v>
+        <v>64</v>
       </c>
       <c r="B48" s="4"/>
-      <c r="C48" s="5"/>
-      <c r="T48" s="10"/>
-      <c r="U48" s="10"/>
-    </row>
-    <row r="49" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="C48" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="BG48" s="8"/>
+      <c r="BH48" s="13"/>
+    </row>
+    <row r="49" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="s">
-        <v>27</v>
+        <v>65</v>
       </c>
       <c r="B49" s="4"/>
-      <c r="C49" s="5"/>
-      <c r="V49" s="10"/>
-      <c r="W49" s="10"/>
-    </row>
-    <row r="50" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="C49" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="BI49" s="16"/>
+      <c r="BJ49" s="8"/>
+    </row>
+    <row r="50" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
-        <v>9</v>
+        <v>66</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" s="3"/>
     </row>
-    <row r="51" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="s">
-        <v>24</v>
+        <v>67</v>
       </c>
       <c r="B51" s="4"/>
-      <c r="C51" s="5"/>
-      <c r="S51" s="10"/>
-      <c r="T51" s="10"/>
-    </row>
-    <row r="52" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="C51" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="BK51" s="13"/>
+      <c r="BL51" s="13"/>
+      <c r="BM51" s="8"/>
+      <c r="BN51" s="13"/>
+    </row>
+    <row r="52" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A52" s="4" t="s">
-        <v>25</v>
+        <v>68</v>
       </c>
       <c r="B52" s="4"/>
-      <c r="C52" s="5"/>
-      <c r="U52" s="10"/>
-      <c r="V52" s="10"/>
-    </row>
-    <row r="53" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="C52" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="BO52" s="8"/>
+      <c r="BP52" s="8"/>
+    </row>
+    <row r="53" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="s">
-        <v>26</v>
+        <v>69</v>
       </c>
       <c r="B53" s="4"/>
-      <c r="C53" s="5"/>
-      <c r="W53" s="10"/>
-      <c r="X53" s="10"/>
-    </row>
-    <row r="54" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="C53" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="BQ53" s="16"/>
+      <c r="BR53" s="16"/>
+      <c r="BS53" s="13"/>
+      <c r="BT53" s="13"/>
+    </row>
+    <row r="54" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A54" s="4" t="s">
-        <v>27</v>
+        <v>59</v>
       </c>
       <c r="B54" s="4"/>
-      <c r="C54" s="5"/>
-      <c r="Y54" s="10"/>
-      <c r="Z54" s="10"/>
-    </row>
-    <row r="55" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="C54" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="BU54" s="8"/>
+      <c r="BV54" s="8"/>
+    </row>
+    <row r="55" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
-        <v>10</v>
+        <v>70</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" s="3"/>
     </row>
-    <row r="56" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A56" s="4" t="s">
-        <v>11</v>
+        <v>71</v>
       </c>
       <c r="B56" s="4"/>
-      <c r="C56" s="5"/>
-      <c r="U56" s="10"/>
-      <c r="V56" s="10"/>
-      <c r="W56" s="10"/>
-      <c r="X56" s="10"/>
-      <c r="Y56" s="10"/>
-      <c r="Z56" s="10"/>
-      <c r="AA56" s="10"/>
-    </row>
-    <row r="57" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="C56" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="BW56" s="8"/>
+      <c r="BX56" s="8"/>
+      <c r="BY56" s="8"/>
+      <c r="BZ56" s="8"/>
+      <c r="CA56" s="8"/>
+      <c r="CB56" s="8"/>
+      <c r="CC56" s="8"/>
+    </row>
+    <row r="57" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A57" s="4" t="s">
-        <v>12</v>
+        <v>72</v>
       </c>
       <c r="B57" s="4"/>
-      <c r="C57" s="5"/>
-      <c r="Z57" s="10"/>
-      <c r="AA57" s="10"/>
-    </row>
-    <row r="58" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="C57" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="CD57" s="8"/>
+      <c r="CE57" s="8"/>
+      <c r="CF57" s="13"/>
+      <c r="CG57" s="13"/>
+      <c r="CH57" s="13"/>
+    </row>
+    <row r="58" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A58" s="4" t="s">
-        <v>13</v>
+        <v>73</v>
       </c>
       <c r="B58" s="4"/>
-      <c r="C58" s="5"/>
-      <c r="Z58" s="10"/>
-      <c r="AA58" s="10"/>
+      <c r="C58" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="CD58" s="8"/>
+      <c r="CE58" s="8"/>
+      <c r="CF58" s="13"/>
+      <c r="CG58" s="13"/>
+      <c r="CH58" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/Documentacion/CMMI Nivel 2/Area PP_PMC/Cronograma PP-PMC.V01.xlsx
+++ b/Documentacion/CMMI Nivel 2/Area PP_PMC/Cronograma PP-PMC.V01.xlsx
@@ -337,7 +337,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Juan Cortez Lope:</t>
         </r>
@@ -346,7 +346,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 </t>
@@ -361,7 +361,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>vilca</t>
         </r>
@@ -375,7 +375,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>JIMENEZ, VILCA</t>
         </r>
@@ -389,7 +389,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>JIMENEZ BENITES</t>
         </r>
@@ -403,7 +403,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>JIMENEZ BENITES</t>
         </r>
@@ -417,7 +417,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>BENITES CORTEZ</t>
         </r>
@@ -431,7 +431,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>JIMENEZ, VILCA</t>
         </r>
@@ -445,7 +445,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>JIMENEZ BENITES</t>
         </r>
@@ -459,7 +459,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>JIMENEZ BENITES</t>
         </r>
@@ -473,7 +473,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>BENITES CORTEZ</t>
         </r>
@@ -487,7 +487,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>JIMENEZ, VILCA</t>
         </r>
@@ -501,7 +501,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>JIMENEZ BENITES</t>
         </r>
@@ -515,7 +515,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>JIMENEZ BENITES</t>
         </r>
@@ -529,7 +529,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>BENITES CORTEZ</t>
         </r>
@@ -543,7 +543,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Juan Cortez</t>
         </r>
@@ -557,7 +557,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Jimenez Benites</t>
         </r>
@@ -571,7 +571,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>jimenez benites Vilca Cortez</t>
         </r>
@@ -915,7 +915,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1011,19 +1011,6 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
-    </font>
-    <font>
       <b/>
       <sz val="9"/>
       <color rgb="FF363636"/>
@@ -1057,6 +1044,13 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="9">
@@ -1423,7 +1417,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1463,16 +1457,28 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="3" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="17" fontId="12" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1499,24 +1505,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="3" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1939,7 +1934,7 @@
       <pane xSplit="3" ySplit="6" topLeftCell="D7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="I14" sqref="I14"/>
+      <selection pane="bottomRight" activeCell="A65" sqref="A65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1952,399 +1947,399 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:94" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="43" t="s">
         <v>102</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="29" t="s">
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="33" t="s">
         <v>103</v>
       </c>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29"/>
-      <c r="I1" s="29"/>
-      <c r="J1" s="29"/>
-      <c r="K1" s="29"/>
-      <c r="L1" s="29"/>
-      <c r="M1" s="29"/>
-      <c r="N1" s="29"/>
-      <c r="O1" s="29"/>
-      <c r="P1" s="29"/>
-      <c r="Q1" s="29"/>
-      <c r="R1" s="29"/>
-      <c r="S1" s="29"/>
-      <c r="T1" s="29"/>
-      <c r="U1" s="29"/>
-      <c r="V1" s="29"/>
-      <c r="W1" s="29"/>
-      <c r="X1" s="29"/>
-      <c r="Y1" s="29"/>
-      <c r="Z1" s="29"/>
-      <c r="AA1" s="29"/>
-      <c r="AB1" s="29"/>
-      <c r="AC1" s="29"/>
-      <c r="AD1" s="29"/>
-      <c r="AE1" s="29"/>
-      <c r="AF1" s="29"/>
-      <c r="AG1" s="29"/>
-      <c r="AH1" s="29"/>
-      <c r="AI1" s="29"/>
-      <c r="AJ1" s="29"/>
-      <c r="AK1" s="29"/>
-      <c r="AL1" s="29"/>
-      <c r="AM1" s="29"/>
-      <c r="AN1" s="29"/>
-      <c r="AO1" s="29"/>
-      <c r="AP1" s="29"/>
-      <c r="AQ1" s="29"/>
-      <c r="AR1" s="29"/>
-      <c r="AS1" s="29"/>
-      <c r="AT1" s="29"/>
-      <c r="AU1" s="29"/>
-      <c r="AV1" s="29"/>
-      <c r="AW1" s="29"/>
-      <c r="AX1" s="29"/>
-      <c r="AY1" s="29"/>
-      <c r="AZ1" s="29"/>
-      <c r="BA1" s="29"/>
-      <c r="BB1" s="29"/>
-      <c r="BC1" s="29"/>
-      <c r="BD1" s="29"/>
-      <c r="BE1" s="29"/>
-      <c r="BF1" s="29"/>
-      <c r="BG1" s="29"/>
-      <c r="BH1" s="29"/>
-      <c r="BI1" s="29"/>
-      <c r="BJ1" s="29"/>
-      <c r="BK1" s="29"/>
-      <c r="BL1" s="29"/>
-      <c r="BM1" s="29"/>
-      <c r="BN1" s="29"/>
-      <c r="BO1" s="29"/>
-      <c r="BP1" s="29"/>
-      <c r="BQ1" s="29"/>
-      <c r="BR1" s="29"/>
-      <c r="BS1" s="29"/>
-      <c r="BT1" s="29"/>
-      <c r="BU1" s="29"/>
-      <c r="BV1" s="29"/>
-      <c r="BW1" s="29"/>
-      <c r="BX1" s="29"/>
-      <c r="BY1" s="29"/>
-      <c r="BZ1" s="29"/>
-      <c r="CA1" s="29"/>
-      <c r="CB1" s="29"/>
-      <c r="CC1" s="29"/>
-      <c r="CD1" s="29"/>
-      <c r="CE1" s="29"/>
-      <c r="CF1" s="29"/>
-      <c r="CG1" s="29"/>
-      <c r="CH1" s="29"/>
-      <c r="CI1" s="29"/>
-      <c r="CJ1" s="29"/>
-      <c r="CK1" s="29"/>
-      <c r="CL1" s="29"/>
-      <c r="CM1" s="29"/>
-      <c r="CN1" s="29"/>
-      <c r="CO1" s="29"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="33"/>
+      <c r="J1" s="33"/>
+      <c r="K1" s="33"/>
+      <c r="L1" s="33"/>
+      <c r="M1" s="33"/>
+      <c r="N1" s="33"/>
+      <c r="O1" s="33"/>
+      <c r="P1" s="33"/>
+      <c r="Q1" s="33"/>
+      <c r="R1" s="33"/>
+      <c r="S1" s="33"/>
+      <c r="T1" s="33"/>
+      <c r="U1" s="33"/>
+      <c r="V1" s="33"/>
+      <c r="W1" s="33"/>
+      <c r="X1" s="33"/>
+      <c r="Y1" s="33"/>
+      <c r="Z1" s="33"/>
+      <c r="AA1" s="33"/>
+      <c r="AB1" s="33"/>
+      <c r="AC1" s="33"/>
+      <c r="AD1" s="33"/>
+      <c r="AE1" s="33"/>
+      <c r="AF1" s="33"/>
+      <c r="AG1" s="33"/>
+      <c r="AH1" s="33"/>
+      <c r="AI1" s="33"/>
+      <c r="AJ1" s="33"/>
+      <c r="AK1" s="33"/>
+      <c r="AL1" s="33"/>
+      <c r="AM1" s="33"/>
+      <c r="AN1" s="33"/>
+      <c r="AO1" s="33"/>
+      <c r="AP1" s="33"/>
+      <c r="AQ1" s="33"/>
+      <c r="AR1" s="33"/>
+      <c r="AS1" s="33"/>
+      <c r="AT1" s="33"/>
+      <c r="AU1" s="33"/>
+      <c r="AV1" s="33"/>
+      <c r="AW1" s="33"/>
+      <c r="AX1" s="33"/>
+      <c r="AY1" s="33"/>
+      <c r="AZ1" s="33"/>
+      <c r="BA1" s="33"/>
+      <c r="BB1" s="33"/>
+      <c r="BC1" s="33"/>
+      <c r="BD1" s="33"/>
+      <c r="BE1" s="33"/>
+      <c r="BF1" s="33"/>
+      <c r="BG1" s="33"/>
+      <c r="BH1" s="33"/>
+      <c r="BI1" s="33"/>
+      <c r="BJ1" s="33"/>
+      <c r="BK1" s="33"/>
+      <c r="BL1" s="33"/>
+      <c r="BM1" s="33"/>
+      <c r="BN1" s="33"/>
+      <c r="BO1" s="33"/>
+      <c r="BP1" s="33"/>
+      <c r="BQ1" s="33"/>
+      <c r="BR1" s="33"/>
+      <c r="BS1" s="33"/>
+      <c r="BT1" s="33"/>
+      <c r="BU1" s="33"/>
+      <c r="BV1" s="33"/>
+      <c r="BW1" s="33"/>
+      <c r="BX1" s="33"/>
+      <c r="BY1" s="33"/>
+      <c r="BZ1" s="33"/>
+      <c r="CA1" s="33"/>
+      <c r="CB1" s="33"/>
+      <c r="CC1" s="33"/>
+      <c r="CD1" s="33"/>
+      <c r="CE1" s="33"/>
+      <c r="CF1" s="33"/>
+      <c r="CG1" s="33"/>
+      <c r="CH1" s="33"/>
+      <c r="CI1" s="33"/>
+      <c r="CJ1" s="33"/>
+      <c r="CK1" s="33"/>
+      <c r="CL1" s="33"/>
+      <c r="CM1" s="33"/>
+      <c r="CN1" s="33"/>
+      <c r="CO1" s="33"/>
     </row>
     <row r="2" spans="1:94" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="28"/>
-      <c r="B2" s="28"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="29"/>
-      <c r="K2" s="29"/>
-      <c r="L2" s="29"/>
-      <c r="M2" s="29"/>
-      <c r="N2" s="29"/>
-      <c r="O2" s="29"/>
-      <c r="P2" s="29"/>
-      <c r="Q2" s="29"/>
-      <c r="R2" s="29"/>
-      <c r="S2" s="29"/>
-      <c r="T2" s="29"/>
-      <c r="U2" s="29"/>
-      <c r="V2" s="29"/>
-      <c r="W2" s="29"/>
-      <c r="X2" s="29"/>
-      <c r="Y2" s="29"/>
-      <c r="Z2" s="29"/>
-      <c r="AA2" s="29"/>
-      <c r="AB2" s="29"/>
-      <c r="AC2" s="29"/>
-      <c r="AD2" s="29"/>
-      <c r="AE2" s="29"/>
-      <c r="AF2" s="29"/>
-      <c r="AG2" s="29"/>
-      <c r="AH2" s="29"/>
-      <c r="AI2" s="29"/>
-      <c r="AJ2" s="29"/>
-      <c r="AK2" s="29"/>
-      <c r="AL2" s="29"/>
-      <c r="AM2" s="29"/>
-      <c r="AN2" s="29"/>
-      <c r="AO2" s="29"/>
-      <c r="AP2" s="29"/>
-      <c r="AQ2" s="29"/>
-      <c r="AR2" s="29"/>
-      <c r="AS2" s="29"/>
-      <c r="AT2" s="29"/>
-      <c r="AU2" s="29"/>
-      <c r="AV2" s="29"/>
-      <c r="AW2" s="29"/>
-      <c r="AX2" s="29"/>
-      <c r="AY2" s="29"/>
-      <c r="AZ2" s="29"/>
-      <c r="BA2" s="29"/>
-      <c r="BB2" s="29"/>
-      <c r="BC2" s="29"/>
-      <c r="BD2" s="29"/>
-      <c r="BE2" s="29"/>
-      <c r="BF2" s="29"/>
-      <c r="BG2" s="29"/>
-      <c r="BH2" s="29"/>
-      <c r="BI2" s="29"/>
-      <c r="BJ2" s="29"/>
-      <c r="BK2" s="29"/>
-      <c r="BL2" s="29"/>
-      <c r="BM2" s="29"/>
-      <c r="BN2" s="29"/>
-      <c r="BO2" s="29"/>
-      <c r="BP2" s="29"/>
-      <c r="BQ2" s="29"/>
-      <c r="BR2" s="29"/>
-      <c r="BS2" s="29"/>
-      <c r="BT2" s="29"/>
-      <c r="BU2" s="29"/>
-      <c r="BV2" s="29"/>
-      <c r="BW2" s="29"/>
-      <c r="BX2" s="29"/>
-      <c r="BY2" s="29"/>
-      <c r="BZ2" s="29"/>
-      <c r="CA2" s="29"/>
-      <c r="CB2" s="29"/>
-      <c r="CC2" s="29"/>
-      <c r="CD2" s="29"/>
-      <c r="CE2" s="29"/>
-      <c r="CF2" s="29"/>
-      <c r="CG2" s="29"/>
-      <c r="CH2" s="29"/>
-      <c r="CI2" s="29"/>
-      <c r="CJ2" s="29"/>
-      <c r="CK2" s="29"/>
-      <c r="CL2" s="29"/>
-      <c r="CM2" s="29"/>
-      <c r="CN2" s="29"/>
-      <c r="CO2" s="29"/>
+      <c r="A2" s="43"/>
+      <c r="B2" s="43"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="33"/>
+      <c r="I2" s="33"/>
+      <c r="J2" s="33"/>
+      <c r="K2" s="33"/>
+      <c r="L2" s="33"/>
+      <c r="M2" s="33"/>
+      <c r="N2" s="33"/>
+      <c r="O2" s="33"/>
+      <c r="P2" s="33"/>
+      <c r="Q2" s="33"/>
+      <c r="R2" s="33"/>
+      <c r="S2" s="33"/>
+      <c r="T2" s="33"/>
+      <c r="U2" s="33"/>
+      <c r="V2" s="33"/>
+      <c r="W2" s="33"/>
+      <c r="X2" s="33"/>
+      <c r="Y2" s="33"/>
+      <c r="Z2" s="33"/>
+      <c r="AA2" s="33"/>
+      <c r="AB2" s="33"/>
+      <c r="AC2" s="33"/>
+      <c r="AD2" s="33"/>
+      <c r="AE2" s="33"/>
+      <c r="AF2" s="33"/>
+      <c r="AG2" s="33"/>
+      <c r="AH2" s="33"/>
+      <c r="AI2" s="33"/>
+      <c r="AJ2" s="33"/>
+      <c r="AK2" s="33"/>
+      <c r="AL2" s="33"/>
+      <c r="AM2" s="33"/>
+      <c r="AN2" s="33"/>
+      <c r="AO2" s="33"/>
+      <c r="AP2" s="33"/>
+      <c r="AQ2" s="33"/>
+      <c r="AR2" s="33"/>
+      <c r="AS2" s="33"/>
+      <c r="AT2" s="33"/>
+      <c r="AU2" s="33"/>
+      <c r="AV2" s="33"/>
+      <c r="AW2" s="33"/>
+      <c r="AX2" s="33"/>
+      <c r="AY2" s="33"/>
+      <c r="AZ2" s="33"/>
+      <c r="BA2" s="33"/>
+      <c r="BB2" s="33"/>
+      <c r="BC2" s="33"/>
+      <c r="BD2" s="33"/>
+      <c r="BE2" s="33"/>
+      <c r="BF2" s="33"/>
+      <c r="BG2" s="33"/>
+      <c r="BH2" s="33"/>
+      <c r="BI2" s="33"/>
+      <c r="BJ2" s="33"/>
+      <c r="BK2" s="33"/>
+      <c r="BL2" s="33"/>
+      <c r="BM2" s="33"/>
+      <c r="BN2" s="33"/>
+      <c r="BO2" s="33"/>
+      <c r="BP2" s="33"/>
+      <c r="BQ2" s="33"/>
+      <c r="BR2" s="33"/>
+      <c r="BS2" s="33"/>
+      <c r="BT2" s="33"/>
+      <c r="BU2" s="33"/>
+      <c r="BV2" s="33"/>
+      <c r="BW2" s="33"/>
+      <c r="BX2" s="33"/>
+      <c r="BY2" s="33"/>
+      <c r="BZ2" s="33"/>
+      <c r="CA2" s="33"/>
+      <c r="CB2" s="33"/>
+      <c r="CC2" s="33"/>
+      <c r="CD2" s="33"/>
+      <c r="CE2" s="33"/>
+      <c r="CF2" s="33"/>
+      <c r="CG2" s="33"/>
+      <c r="CH2" s="33"/>
+      <c r="CI2" s="33"/>
+      <c r="CJ2" s="33"/>
+      <c r="CK2" s="33"/>
+      <c r="CL2" s="33"/>
+      <c r="CM2" s="33"/>
+      <c r="CN2" s="33"/>
+      <c r="CO2" s="33"/>
     </row>
     <row r="3" spans="1:94" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="28"/>
-      <c r="B3" s="28"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="30"/>
-      <c r="J3" s="30"/>
-      <c r="K3" s="30"/>
-      <c r="L3" s="30"/>
-      <c r="M3" s="30"/>
-      <c r="N3" s="30"/>
-      <c r="O3" s="30"/>
-      <c r="P3" s="30"/>
-      <c r="Q3" s="30"/>
-      <c r="R3" s="30"/>
-      <c r="S3" s="30"/>
-      <c r="T3" s="30"/>
-      <c r="U3" s="30"/>
-      <c r="V3" s="30"/>
-      <c r="W3" s="30"/>
-      <c r="X3" s="30"/>
-      <c r="Y3" s="30"/>
-      <c r="Z3" s="30"/>
-      <c r="AA3" s="30"/>
-      <c r="AB3" s="30"/>
-      <c r="AC3" s="30"/>
-      <c r="AD3" s="30"/>
-      <c r="AE3" s="30"/>
-      <c r="AF3" s="30"/>
-      <c r="AG3" s="30"/>
-      <c r="AH3" s="30"/>
-      <c r="AI3" s="30"/>
-      <c r="AJ3" s="30"/>
-      <c r="AK3" s="30"/>
-      <c r="AL3" s="30"/>
-      <c r="AM3" s="30"/>
-      <c r="AN3" s="30"/>
-      <c r="AO3" s="30"/>
-      <c r="AP3" s="30"/>
-      <c r="AQ3" s="30"/>
-      <c r="AR3" s="30"/>
-      <c r="AS3" s="30"/>
-      <c r="AT3" s="30"/>
-      <c r="AU3" s="30"/>
-      <c r="AV3" s="30"/>
-      <c r="AW3" s="30"/>
-      <c r="AX3" s="30"/>
-      <c r="AY3" s="30"/>
-      <c r="AZ3" s="30"/>
-      <c r="BA3" s="30"/>
-      <c r="BB3" s="30"/>
-      <c r="BC3" s="30"/>
-      <c r="BD3" s="30"/>
-      <c r="BE3" s="30"/>
-      <c r="BF3" s="30"/>
-      <c r="BG3" s="30"/>
-      <c r="BH3" s="30"/>
-      <c r="BI3" s="30"/>
-      <c r="BJ3" s="30"/>
-      <c r="BK3" s="30"/>
-      <c r="BL3" s="30"/>
-      <c r="BM3" s="30"/>
-      <c r="BN3" s="30"/>
-      <c r="BO3" s="30"/>
-      <c r="BP3" s="30"/>
-      <c r="BQ3" s="30"/>
-      <c r="BR3" s="30"/>
-      <c r="BS3" s="30"/>
-      <c r="BT3" s="30"/>
-      <c r="BU3" s="30"/>
-      <c r="BV3" s="30"/>
-      <c r="BW3" s="30"/>
-      <c r="BX3" s="30"/>
-      <c r="BY3" s="30"/>
-      <c r="BZ3" s="30"/>
-      <c r="CA3" s="30"/>
-      <c r="CB3" s="30"/>
-      <c r="CC3" s="30"/>
-      <c r="CD3" s="30"/>
-      <c r="CE3" s="30"/>
-      <c r="CF3" s="30"/>
-      <c r="CG3" s="30"/>
-      <c r="CH3" s="30"/>
-      <c r="CI3" s="30"/>
-      <c r="CJ3" s="30"/>
-      <c r="CK3" s="30"/>
-      <c r="CL3" s="30"/>
-      <c r="CM3" s="30"/>
-      <c r="CN3" s="30"/>
-      <c r="CO3" s="30"/>
+      <c r="A3" s="43"/>
+      <c r="B3" s="43"/>
+      <c r="C3" s="43"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="34"/>
+      <c r="H3" s="34"/>
+      <c r="I3" s="34"/>
+      <c r="J3" s="34"/>
+      <c r="K3" s="34"/>
+      <c r="L3" s="34"/>
+      <c r="M3" s="34"/>
+      <c r="N3" s="34"/>
+      <c r="O3" s="34"/>
+      <c r="P3" s="34"/>
+      <c r="Q3" s="34"/>
+      <c r="R3" s="34"/>
+      <c r="S3" s="34"/>
+      <c r="T3" s="34"/>
+      <c r="U3" s="34"/>
+      <c r="V3" s="34"/>
+      <c r="W3" s="34"/>
+      <c r="X3" s="34"/>
+      <c r="Y3" s="34"/>
+      <c r="Z3" s="34"/>
+      <c r="AA3" s="34"/>
+      <c r="AB3" s="34"/>
+      <c r="AC3" s="34"/>
+      <c r="AD3" s="34"/>
+      <c r="AE3" s="34"/>
+      <c r="AF3" s="34"/>
+      <c r="AG3" s="34"/>
+      <c r="AH3" s="34"/>
+      <c r="AI3" s="34"/>
+      <c r="AJ3" s="34"/>
+      <c r="AK3" s="34"/>
+      <c r="AL3" s="34"/>
+      <c r="AM3" s="34"/>
+      <c r="AN3" s="34"/>
+      <c r="AO3" s="34"/>
+      <c r="AP3" s="34"/>
+      <c r="AQ3" s="34"/>
+      <c r="AR3" s="34"/>
+      <c r="AS3" s="34"/>
+      <c r="AT3" s="34"/>
+      <c r="AU3" s="34"/>
+      <c r="AV3" s="34"/>
+      <c r="AW3" s="34"/>
+      <c r="AX3" s="34"/>
+      <c r="AY3" s="34"/>
+      <c r="AZ3" s="34"/>
+      <c r="BA3" s="34"/>
+      <c r="BB3" s="34"/>
+      <c r="BC3" s="34"/>
+      <c r="BD3" s="34"/>
+      <c r="BE3" s="34"/>
+      <c r="BF3" s="34"/>
+      <c r="BG3" s="34"/>
+      <c r="BH3" s="34"/>
+      <c r="BI3" s="34"/>
+      <c r="BJ3" s="34"/>
+      <c r="BK3" s="34"/>
+      <c r="BL3" s="34"/>
+      <c r="BM3" s="34"/>
+      <c r="BN3" s="34"/>
+      <c r="BO3" s="34"/>
+      <c r="BP3" s="34"/>
+      <c r="BQ3" s="34"/>
+      <c r="BR3" s="34"/>
+      <c r="BS3" s="34"/>
+      <c r="BT3" s="34"/>
+      <c r="BU3" s="34"/>
+      <c r="BV3" s="34"/>
+      <c r="BW3" s="34"/>
+      <c r="BX3" s="34"/>
+      <c r="BY3" s="34"/>
+      <c r="BZ3" s="34"/>
+      <c r="CA3" s="34"/>
+      <c r="CB3" s="34"/>
+      <c r="CC3" s="34"/>
+      <c r="CD3" s="34"/>
+      <c r="CE3" s="34"/>
+      <c r="CF3" s="34"/>
+      <c r="CG3" s="34"/>
+      <c r="CH3" s="34"/>
+      <c r="CI3" s="34"/>
+      <c r="CJ3" s="34"/>
+      <c r="CK3" s="34"/>
+      <c r="CL3" s="34"/>
+      <c r="CM3" s="34"/>
+      <c r="CN3" s="34"/>
+      <c r="CO3" s="34"/>
     </row>
     <row r="4" spans="1:94" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="28"/>
-      <c r="B4" s="28"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="31" t="s">
+      <c r="A4" s="43"/>
+      <c r="B4" s="43"/>
+      <c r="C4" s="43"/>
+      <c r="D4" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="31"/>
-      <c r="F4" s="31"/>
-      <c r="G4" s="31"/>
-      <c r="H4" s="31"/>
-      <c r="I4" s="31"/>
-      <c r="J4" s="31"/>
-      <c r="K4" s="31"/>
-      <c r="L4" s="31"/>
-      <c r="M4" s="31"/>
-      <c r="N4" s="31"/>
-      <c r="O4" s="31"/>
-      <c r="P4" s="31"/>
-      <c r="Q4" s="31"/>
-      <c r="R4" s="31"/>
-      <c r="S4" s="31"/>
-      <c r="T4" s="31"/>
-      <c r="U4" s="31"/>
-      <c r="V4" s="31"/>
-      <c r="W4" s="31"/>
-      <c r="X4" s="31"/>
-      <c r="Y4" s="31"/>
-      <c r="Z4" s="31"/>
-      <c r="AA4" s="31"/>
-      <c r="AB4" s="31"/>
-      <c r="AC4" s="31"/>
-      <c r="AD4" s="31"/>
-      <c r="AE4" s="31"/>
-      <c r="AF4" s="31"/>
-      <c r="AG4" s="32"/>
-      <c r="AH4" s="33" t="s">
+      <c r="E4" s="35"/>
+      <c r="F4" s="35"/>
+      <c r="G4" s="35"/>
+      <c r="H4" s="35"/>
+      <c r="I4" s="35"/>
+      <c r="J4" s="35"/>
+      <c r="K4" s="35"/>
+      <c r="L4" s="35"/>
+      <c r="M4" s="35"/>
+      <c r="N4" s="35"/>
+      <c r="O4" s="35"/>
+      <c r="P4" s="35"/>
+      <c r="Q4" s="35"/>
+      <c r="R4" s="35"/>
+      <c r="S4" s="35"/>
+      <c r="T4" s="35"/>
+      <c r="U4" s="35"/>
+      <c r="V4" s="35"/>
+      <c r="W4" s="35"/>
+      <c r="X4" s="35"/>
+      <c r="Y4" s="35"/>
+      <c r="Z4" s="35"/>
+      <c r="AA4" s="35"/>
+      <c r="AB4" s="35"/>
+      <c r="AC4" s="35"/>
+      <c r="AD4" s="35"/>
+      <c r="AE4" s="35"/>
+      <c r="AF4" s="35"/>
+      <c r="AG4" s="36"/>
+      <c r="AH4" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="AI4" s="34"/>
-      <c r="AJ4" s="34"/>
-      <c r="AK4" s="34"/>
-      <c r="AL4" s="34"/>
-      <c r="AM4" s="34"/>
-      <c r="AN4" s="34"/>
-      <c r="AO4" s="34"/>
-      <c r="AP4" s="34"/>
-      <c r="AQ4" s="34"/>
-      <c r="AR4" s="34"/>
-      <c r="AS4" s="34"/>
-      <c r="AT4" s="34"/>
-      <c r="AU4" s="34"/>
-      <c r="AV4" s="34"/>
-      <c r="AW4" s="34"/>
-      <c r="AX4" s="34"/>
-      <c r="AY4" s="34"/>
-      <c r="AZ4" s="34"/>
-      <c r="BA4" s="34"/>
-      <c r="BB4" s="34"/>
-      <c r="BC4" s="34"/>
-      <c r="BD4" s="34"/>
-      <c r="BE4" s="34"/>
-      <c r="BF4" s="34"/>
-      <c r="BG4" s="34"/>
-      <c r="BH4" s="34"/>
-      <c r="BI4" s="34"/>
-      <c r="BJ4" s="35"/>
-      <c r="BK4" s="36" t="s">
+      <c r="AI4" s="38"/>
+      <c r="AJ4" s="38"/>
+      <c r="AK4" s="38"/>
+      <c r="AL4" s="38"/>
+      <c r="AM4" s="38"/>
+      <c r="AN4" s="38"/>
+      <c r="AO4" s="38"/>
+      <c r="AP4" s="38"/>
+      <c r="AQ4" s="38"/>
+      <c r="AR4" s="38"/>
+      <c r="AS4" s="38"/>
+      <c r="AT4" s="38"/>
+      <c r="AU4" s="38"/>
+      <c r="AV4" s="38"/>
+      <c r="AW4" s="38"/>
+      <c r="AX4" s="38"/>
+      <c r="AY4" s="38"/>
+      <c r="AZ4" s="38"/>
+      <c r="BA4" s="38"/>
+      <c r="BB4" s="38"/>
+      <c r="BC4" s="38"/>
+      <c r="BD4" s="38"/>
+      <c r="BE4" s="38"/>
+      <c r="BF4" s="38"/>
+      <c r="BG4" s="38"/>
+      <c r="BH4" s="38"/>
+      <c r="BI4" s="38"/>
+      <c r="BJ4" s="39"/>
+      <c r="BK4" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="BL4" s="37"/>
-      <c r="BM4" s="37"/>
-      <c r="BN4" s="37"/>
-      <c r="BO4" s="37"/>
-      <c r="BP4" s="37"/>
-      <c r="BQ4" s="37"/>
-      <c r="BR4" s="37"/>
-      <c r="BS4" s="37"/>
-      <c r="BT4" s="37"/>
-      <c r="BU4" s="37"/>
-      <c r="BV4" s="37"/>
-      <c r="BW4" s="37"/>
-      <c r="BX4" s="37"/>
-      <c r="BY4" s="37"/>
-      <c r="BZ4" s="37"/>
-      <c r="CA4" s="37"/>
-      <c r="CB4" s="37"/>
-      <c r="CC4" s="37"/>
-      <c r="CD4" s="37"/>
-      <c r="CE4" s="37"/>
-      <c r="CF4" s="37"/>
-      <c r="CG4" s="37"/>
-      <c r="CH4" s="37"/>
-      <c r="CI4" s="37"/>
-      <c r="CJ4" s="37"/>
-      <c r="CK4" s="37"/>
-      <c r="CL4" s="37"/>
-      <c r="CM4" s="37"/>
-      <c r="CN4" s="37"/>
-      <c r="CO4" s="38"/>
+      <c r="BL4" s="41"/>
+      <c r="BM4" s="41"/>
+      <c r="BN4" s="41"/>
+      <c r="BO4" s="41"/>
+      <c r="BP4" s="41"/>
+      <c r="BQ4" s="41"/>
+      <c r="BR4" s="41"/>
+      <c r="BS4" s="41"/>
+      <c r="BT4" s="41"/>
+      <c r="BU4" s="41"/>
+      <c r="BV4" s="41"/>
+      <c r="BW4" s="41"/>
+      <c r="BX4" s="41"/>
+      <c r="BY4" s="41"/>
+      <c r="BZ4" s="41"/>
+      <c r="CA4" s="41"/>
+      <c r="CB4" s="41"/>
+      <c r="CC4" s="41"/>
+      <c r="CD4" s="41"/>
+      <c r="CE4" s="41"/>
+      <c r="CF4" s="41"/>
+      <c r="CG4" s="41"/>
+      <c r="CH4" s="41"/>
+      <c r="CI4" s="41"/>
+      <c r="CJ4" s="41"/>
+      <c r="CK4" s="41"/>
+      <c r="CL4" s="41"/>
+      <c r="CM4" s="41"/>
+      <c r="CN4" s="41"/>
+      <c r="CO4" s="42"/>
     </row>
     <row r="5" spans="1:94" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="39"/>
-      <c r="B5" s="39"/>
-      <c r="C5" s="39"/>
+      <c r="A5" s="44"/>
+      <c r="B5" s="44"/>
+      <c r="C5" s="44"/>
       <c r="D5" s="20" t="s">
         <v>11</v>
       </c>
@@ -2618,13 +2613,13 @@
       <c r="CP5" s="3"/>
     </row>
     <row r="6" spans="1:94" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="42" t="s">
+      <c r="A6" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="43" t="s">
+      <c r="B6" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="44" t="s">
+      <c r="C6" s="32" t="s">
         <v>5</v>
       </c>
       <c r="D6" s="23">
@@ -2899,10 +2894,10 @@
       </c>
     </row>
     <row r="7" spans="1:94" x14ac:dyDescent="0.25">
-      <c r="A7" s="40" t="s">
+      <c r="A7" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="41"/>
+      <c r="B7" s="29"/>
       <c r="C7" s="6"/>
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
@@ -3604,7 +3599,7 @@
       <c r="F14" s="6"/>
       <c r="G14" s="6"/>
       <c r="H14" s="6"/>
-      <c r="I14" s="6"/>
+      <c r="I14" s="45"/>
       <c r="J14" s="6"/>
       <c r="K14" s="6"/>
       <c r="L14" s="6"/>
